--- a/public/templates/FORMATO PERMISOS NUEVO PROPUESTO.xlsx
+++ b/public/templates/FORMATO PERMISOS NUEVO PROPUESTO.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\SI26DEMARZO\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4716A-E836-4FBC-B128-7BDA406B844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Hoja2!$A$6:$G$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t xml:space="preserve">FORMATO SOLICITUD DE PERMISO </t>
   </si>
@@ -161,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -321,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,46 +349,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,7 +424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -421,7 +439,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -441,7 +459,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -498,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -550,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -744,21 +762,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -768,103 +786,103 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="12" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
@@ -877,216 +895,208 @@
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="C24" s="10"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" s="10"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="C26" s="10"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="21"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1">
+      <c r="C27" s="10"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="C28" s="10"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="9" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="12" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>39</v>
       </c>
@@ -1101,31 +1111,31 @@
       <c r="F33" s="24"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" ht="44.45" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
+    <row r="34" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -1199,14 +1209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1216,99 +1226,99 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1321,44 +1331,44 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1366,171 +1376,171 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="9" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>39</v>
       </c>
@@ -1545,31 +1555,31 @@
       <c r="F32" s="24"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" ht="44.45" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="10" t="s">
+    <row r="33" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
   </sheetData>
